--- a/homeworks/CF_HW_5_Answer_2024.xlsx
+++ b/homeworks/CF_HW_5_Answer_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Problems Fall 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Corp Fin Git/Corp-Fin/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="181" documentId="8_{13CA8EDD-2E5B-C447-8FC4-8C452426AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66B3D0F-8262-1348-8B9E-4BE7D55C1A6B}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="560" windowWidth="38880" windowHeight="23580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 5 Fall " sheetId="1" r:id="rId1"/>
@@ -383,10 +383,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="0.0%"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -415,11 +415,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -600,10 +595,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,12 +747,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,6 +810,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -802,53 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1520,6 +1495,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1844,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="108" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B47" zoomScale="108" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1907,10 +1886,10 @@
       <c r="B8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
     </row>
@@ -2345,7 +2324,7 @@
         <v>86.77</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>2019</v>
       </c>
@@ -2364,7 +2343,7 @@
         <v>123.09</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>2020</v>
       </c>
@@ -2383,7 +2362,7 @@
         <v>117.89</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>2021</v>
       </c>
@@ -2402,7 +2381,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>2022</v>
       </c>
@@ -2421,7 +2400,7 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>2023</v>
       </c>
@@ -2440,7 +2419,7 @@
         <v>103.35</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>2024</v>
       </c>
@@ -2459,19 +2438,19 @@
         <v>122.71000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="12"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="F39" s="32"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="30"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -2485,7 +2464,7 @@
       </c>
       <c r="F41" s="30"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="12"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2494,7 +2473,7 @@
       </c>
       <c r="F42" s="30"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="8" t="s">
         <v>10</v>
       </c>
@@ -2505,7 +2484,7 @@
       </c>
       <c r="F43" s="30"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -2519,37 +2498,21 @@
       </c>
       <c r="F44" s="30"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="30"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="F46" s="30"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="8" t="s">
         <v>36</v>
       </c>
@@ -2565,16 +2528,9 @@
         <v>66</v>
       </c>
       <c r="F47" s="30"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -2590,46 +2546,27 @@
         <v>67</v>
       </c>
       <c r="F48" s="30"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H48" s="62"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="F49" s="30"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H49" s="62"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="F50" s="30"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H50" s="62"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="8" t="s">
         <v>9</v>
       </c>
@@ -2639,46 +2576,26 @@
       </c>
       <c r="D51" s="3"/>
       <c r="F51" s="30"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H51" s="62"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="F52" s="30"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H52" s="62"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="F53" s="30"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H53" s="62"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -2696,46 +2613,25 @@
       <c r="F54" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="79"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="12"/>
       <c r="C55" s="5"/>
       <c r="D55" s="3"/>
       <c r="F55" s="30"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3"/>
       <c r="F56" s="30"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="8" t="s">
         <v>39</v>
       </c>
@@ -2745,114 +2641,63 @@
       </c>
       <c r="D57" s="3"/>
       <c r="F57" s="30"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
       <c r="F58" s="30"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="58" t="s">
         <v>89</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="30"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="58" t="s">
         <v>77</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="30"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="58" t="s">
         <v>91</v>
       </c>
       <c r="D61" s="3"/>
       <c r="F61" s="30"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H61" s="61"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="58" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="3"/>
       <c r="F62" s="30"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="65" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="3"/>
       <c r="F63" s="30"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="78"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
-      <c r="C64" s="84">
+      <c r="C64" s="62">
         <v>0.7</v>
       </c>
       <c r="D64" s="44" t="s">
@@ -2860,18 +2705,11 @@
       </c>
       <c r="E64"/>
       <c r="F64" s="30"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="78"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
-      <c r="C65" s="84">
+      <c r="C65" s="62">
         <v>0.3</v>
       </c>
       <c r="D65" s="44" t="s">
@@ -2879,18 +2717,11 @@
       </c>
       <c r="E65"/>
       <c r="F65" s="30"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
-      <c r="C66" s="81">
+      <c r="C66" s="59">
         <f>C48/100</f>
         <v>0.18191092988123728</v>
       </c>
@@ -2899,18 +2730,11 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="30"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
-      <c r="C67" s="82">
+      <c r="C67" s="60">
         <f>D48/100</f>
         <v>0.37830037393576282</v>
       </c>
@@ -2919,18 +2743,11 @@
       </c>
       <c r="E67"/>
       <c r="F67" s="30"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
-      <c r="C68" s="83">
+      <c r="C68" s="61">
         <f>C41/100</f>
         <v>0.10485555555555554</v>
       </c>
@@ -2939,18 +2756,11 @@
       </c>
       <c r="E68"/>
       <c r="F68" s="30"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
-      <c r="C69" s="82">
+      <c r="C69" s="60">
         <f>D41/100</f>
         <v>0.11402291466329226</v>
       </c>
@@ -2959,18 +2769,11 @@
       </c>
       <c r="E69"/>
       <c r="F69" s="30"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
-      <c r="C70" s="86">
+      <c r="C70" s="63">
         <f>C68*C64+C69*C65</f>
         <v>0.10760576328787655</v>
       </c>
@@ -2979,18 +2782,11 @@
       </c>
       <c r="E70"/>
       <c r="F70" s="30"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" s="8"/>
-      <c r="C71" s="85">
+      <c r="C71" s="5">
         <f>C51</f>
         <v>0.58287648094278377</v>
       </c>
@@ -2999,18 +2795,11 @@
       </c>
       <c r="E71"/>
       <c r="F71" s="30"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
-      <c r="C72" s="91">
+      <c r="C72" s="64">
         <f>C64^2*C66^2+C65^2*C67^2+2*C64*C65*C71*C66*C67</f>
         <v>4.5941836775719544E-2</v>
       </c>
@@ -3019,16 +2808,9 @@
       </c>
       <c r="E72"/>
       <c r="F72" s="30"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
       <c r="C73" s="56">
         <f>SQRT(C72)</f>
@@ -3039,18 +2821,11 @@
       </c>
       <c r="E73"/>
       <c r="F73" s="30"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="78"/>
-      <c r="O73" s="78"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
-      <c r="C74" s="83">
+      <c r="C74" s="61">
         <f>C64*C66+C65*C67</f>
         <v>0.2408277630975949</v>
       </c>
@@ -3059,138 +2834,89 @@
       </c>
       <c r="E74"/>
       <c r="F74" s="30"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="78"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" s="8"/>
       <c r="E75"/>
       <c r="F75" s="30"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-      <c r="M75" s="78"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="78"/>
-    </row>
-    <row r="76" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
-      <c r="C76" s="92" t="s">
+      <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="30"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="78"/>
-      <c r="N76" s="78"/>
-      <c r="O76" s="78"/>
-    </row>
-    <row r="77" spans="2:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="21"/>
       <c r="F77" s="33"/>
       <c r="H77" s="56"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H78" s="56"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="78"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="78"/>
-      <c r="N78" s="78"/>
-      <c r="O78" s="78"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="H79" s="83"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="78"/>
-      <c r="N79" s="78"/>
-      <c r="O79" s="78"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="H80" s="83"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="78"/>
-      <c r="O80" s="78"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H79" s="61"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H80" s="61"/>
     </row>
     <row r="81" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H81" s="87"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="89"/>
-      <c r="M81" s="89"/>
-      <c r="N81" s="89"/>
-      <c r="O81" s="89"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
     </row>
     <row r="82" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H82" s="90"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="89"/>
-      <c r="M82" s="89"/>
-      <c r="N82" s="89"/>
-      <c r="O82" s="89"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
     </row>
     <row r="83" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H83" s="90"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="89"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
     </row>
     <row r="84" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H84" s="90"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
+      <c r="M84" s="66"/>
+      <c r="N84" s="66"/>
+      <c r="O84" s="66"/>
     </row>
     <row r="85" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H85" s="90"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="89"/>
-      <c r="M85" s="89"/>
-      <c r="N85" s="89"/>
-      <c r="O85" s="89"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="66"/>
+      <c r="M85" s="66"/>
+      <c r="N85" s="66"/>
+      <c r="O85" s="66"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B97" s="41" t="s">
@@ -3212,37 +2938,37 @@
       <c r="B100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="77" t="s">
+      <c r="C100" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="68"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="76"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B101" s="9"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="68"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="76"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="9"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="68"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="76"/>
     </row>
     <row r="103" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B103" s="10"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="70"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="78"/>
     </row>
     <row r="105" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G105" s="21"/>
@@ -3259,49 +2985,49 @@
     </row>
     <row r="107" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="11"/>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="83"/>
       <c r="H107" s="42"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B108" s="11"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="74"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="83"/>
       <c r="H108" s="42"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B109" s="11"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="74"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="83"/>
       <c r="H109" s="42"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B110" s="11"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="74"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="83"/>
       <c r="H110" s="42"/>
     </row>
     <row r="111" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="76"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="85"/>
       <c r="H111" s="42"/>
     </row>
     <row r="112" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -3319,41 +3045,41 @@
       <c r="B114" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
       <c r="F114"/>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B115" s="12"/>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="59"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="68"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B116" s="12"/>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="59"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="68"/>
     </row>
     <row r="117" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B117" s="14"/>
-      <c r="C117" s="66" t="s">
+      <c r="C117" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
       <c r="F117" s="15"/>
       <c r="G117" s="16"/>
     </row>
@@ -3377,41 +3103,41 @@
       <c r="B120" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="58" t="s">
+      <c r="C120" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
       <c r="F120"/>
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B121" s="9"/>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="59"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="68"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B122" s="9"/>
-      <c r="C122" s="58" t="s">
+      <c r="C122" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="59"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="68"/>
     </row>
     <row r="123" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
-      <c r="C123" s="66" t="s">
+      <c r="C123" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
       <c r="F123" s="15"/>
       <c r="G123" s="16"/>
     </row>
@@ -3430,45 +3156,45 @@
       <c r="B126" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C126" s="67" t="s">
+      <c r="C126" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="68"/>
+      <c r="D126" s="75"/>
+      <c r="E126" s="75"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="76"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B127" s="11"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="68"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75"/>
+      <c r="F127" s="75"/>
+      <c r="G127" s="76"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B128" s="11"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="68"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="75"/>
+      <c r="E128" s="75"/>
+      <c r="F128" s="75"/>
+      <c r="G128" s="76"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B129" s="11"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="68"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="76"/>
     </row>
     <row r="130" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="69"/>
-      <c r="G130" s="70"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="78"/>
     </row>
     <row r="131" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="132" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3485,45 +3211,45 @@
       <c r="B133" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="60" t="s">
+      <c r="C133" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D133" s="60"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="61"/>
-      <c r="G133" s="62"/>
+      <c r="D133" s="66"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="69"/>
+      <c r="G133" s="70"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B134" s="9"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="61"/>
-      <c r="G134" s="62"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="70"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B135" s="9"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="61"/>
-      <c r="F135" s="61"/>
-      <c r="G135" s="62"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="69"/>
+      <c r="G135" s="70"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B136" s="9"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="62"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="70"/>
     </row>
     <row r="137" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B137" s="17"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="64"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="65"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="73"/>
     </row>
     <row r="138" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3583,18 +3309,10 @@
       <c r="B146" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C146" s="78"/>
-      <c r="D146" s="78"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
       <c r="G146" s="30"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B147" s="9"/>
-      <c r="C147" s="78"/>
-      <c r="D147" s="78"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
       <c r="G147" s="30"/>
     </row>
     <row r="148" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3853,6 +3571,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C100:G103"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C107:G111"/>
     <mergeCell ref="I81:O85"/>
     <mergeCell ref="C116:G116"/>
     <mergeCell ref="C133:G137"/>
@@ -3862,11 +3585,6 @@
     <mergeCell ref="C122:G122"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="C126:G130"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C100:G103"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C107:G111"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/homeworks/CF_HW_5_Answer_2024.xlsx
+++ b/homeworks/CF_HW_5_Answer_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Corp Fin Git/Corp-Fin/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{13CA8EDD-2E5B-C447-8FC4-8C452426AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66B3D0F-8262-1348-8B9E-4BE7D55C1A6B}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{13CA8EDD-2E5B-C447-8FC4-8C452426AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5E4327-F361-964C-82A2-0C862859AB69}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25160" yWindow="500" windowWidth="24660" windowHeight="27660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 5 Fall " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Returns</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -249,12 +249,6 @@
   </si>
   <si>
     <t>To use the CAPM to find E(r) (equity), use the Beta (Equity) from (c)</t>
-  </si>
-  <si>
-    <t>Using Covar.S</t>
-  </si>
-  <si>
-    <t>Using Covar.P</t>
   </si>
   <si>
     <t>Question 11</t>
@@ -320,9 +314,6 @@
     </r>
   </si>
   <si>
-    <t>Larry's portfolio could be very undiversified.  More importantly, the higher beta stocks also bring with them higher risk if the market tanks.</t>
-  </si>
-  <si>
     <t>(g)</t>
   </si>
   <si>
@@ -375,6 +366,18 @@
   </si>
   <si>
     <t>An investor would have to weigh whether the increased E(r) is worth the slightly higher SD of the portfolio.</t>
+  </si>
+  <si>
+    <t>Using Covariance.S</t>
+  </si>
+  <si>
+    <t>Using Covariance.P</t>
+  </si>
+  <si>
+    <t>Note, combining risky assets won't lower the risk of the portfolio compared to the individual risks of the assets unless the assets have a neg correlation.</t>
+  </si>
+  <si>
+    <t>Larry's portfolio could be very undiversified, for instance, all bank stocks.  More importantly, the higher beta stocks also bring with them higher risk if the market tanks.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,9 +611,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -684,12 +684,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,43 +728,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1389,7 +1393,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>804334</xdr:colOff>
+      <xdr:colOff>1105371</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:from>
@@ -1397,7 +1401,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1412,8 +1416,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3438408" y="6078597"/>
-          <a:ext cx="371592" cy="354658"/>
+          <a:off x="5526852" y="6901745"/>
+          <a:ext cx="505648" cy="306681"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1493,10 +1497,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B47" zoomScale="108" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1832,9 +1832,9 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="53.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
@@ -1843,22 +1843,22 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="48"/>
+      <c r="B3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="50"/>
+      <c r="B4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="47"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
@@ -1883,278 +1883,278 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="12"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="11"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>72</v>
+      <c r="F10" s="34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>1998</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="58">
         <v>23.43</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="58">
         <v>-47.243377416729118</v>
       </c>
       <c r="E12" s="3">
         <f>C12+100</f>
         <v>123.43</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <f>D12+100</f>
         <v>52.756622583270882</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>1999</v>
       </c>
       <c r="C13" s="3">
         <v>23.56</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="58">
         <v>78.204148971922635</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="E13:E23" si="0">C13+100</f>
         <v>123.56</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <f t="shared" ref="F13:F23" si="1">D13+100</f>
         <v>178.20414897192262</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>2000</v>
       </c>
       <c r="C14" s="3">
         <v>-10.89</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="58">
         <v>-22.796941434645461</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>89.11</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <f t="shared" si="1"/>
         <v>77.203058565354539</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>2001</v>
       </c>
       <c r="C15" s="3">
         <v>-10.97</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="58">
         <v>-16.963869334458476</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>89.03</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <f t="shared" si="1"/>
         <v>83.036130665541521</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>2002</v>
       </c>
       <c r="C16" s="3">
         <v>-20.86</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="58">
         <v>-15.179717586649556</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>79.14</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <f t="shared" si="1"/>
         <v>84.820282413350441</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>2003</v>
       </c>
       <c r="C17" s="3">
         <v>31.64</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="58">
         <v>84.178332702736796</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>131.63999999999999</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <f t="shared" si="1"/>
         <v>184.17833270273678</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>2004</v>
       </c>
       <c r="C18" s="3">
         <v>12.62</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="58">
         <v>13.632861985140543</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>112.62</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <f t="shared" si="1"/>
         <v>113.63286198514055</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <v>2005</v>
       </c>
       <c r="C19" s="3">
         <v>6.32</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="58">
         <v>39.810929908478023</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>106.32</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f t="shared" si="1"/>
         <v>139.81092990847802</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>2006</v>
       </c>
       <c r="C20" s="3">
         <v>15.88</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="58">
         <v>52.868980528646695</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>115.88</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <f t="shared" si="1"/>
         <v>152.86898052864669</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <v>2007</v>
       </c>
       <c r="C21" s="3">
         <v>5.73</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="58">
         <v>56.12263599004703</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>105.73</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <f t="shared" si="1"/>
         <v>156.12263599004703</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="31">
+      <c r="B22" s="30">
         <v>2008</v>
       </c>
       <c r="C22" s="3">
         <v>-37.340000000000003</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="58">
         <v>-60.266878568219731</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>62.66</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <f t="shared" si="1"/>
         <v>39.733121431780269</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>2009</v>
       </c>
       <c r="C23" s="3">
         <v>29.42</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="58">
         <v>88.794763844619794</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>129.42000000000002</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <f t="shared" si="1"/>
         <v>188.79476384461981</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>2010</v>
       </c>
       <c r="C24" s="3">
@@ -2167,13 +2167,13 @@
         <f>C24+100</f>
         <v>117.87</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <f>D24+100</f>
         <v>107.27</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>2011</v>
       </c>
       <c r="C25" s="3">
@@ -2186,13 +2186,13 @@
         <f t="shared" ref="E25:E27" si="2">C25+100</f>
         <v>100.59</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f t="shared" ref="F25:F27" si="3">D25+100</f>
         <v>77.33</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>2012</v>
       </c>
       <c r="C26" s="3">
@@ -2205,13 +2205,13 @@
         <f t="shared" si="2"/>
         <v>116.12</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <f t="shared" si="3"/>
         <v>114.89</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>2013</v>
       </c>
       <c r="C27" s="3">
@@ -2224,13 +2224,13 @@
         <f t="shared" si="2"/>
         <v>134.02000000000001</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <f t="shared" si="3"/>
         <v>96.75</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>2014</v>
       </c>
       <c r="C28" s="3">
@@ -2243,13 +2243,13 @@
         <f t="shared" ref="E28:E31" si="4">C28+100</f>
         <v>112.07</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31">
         <f t="shared" ref="F28:F31" si="5">D28+100</f>
         <v>97.44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>2015</v>
       </c>
       <c r="C29" s="3">
@@ -2262,13 +2262,13 @@
         <f t="shared" si="4"/>
         <v>99.76</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <f t="shared" si="5"/>
         <v>86.75</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>2016</v>
       </c>
       <c r="C30" s="3">
@@ -2281,13 +2281,13 @@
         <f t="shared" si="4"/>
         <v>113.03999999999999</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <f t="shared" si="5"/>
         <v>112.37</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>2017</v>
       </c>
       <c r="C31" s="3">
@@ -2300,13 +2300,13 @@
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <f t="shared" si="5"/>
         <v>142.04</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>2018</v>
       </c>
       <c r="C32" s="3">
@@ -2319,13 +2319,13 @@
         <f t="shared" ref="E32:E36" si="6">C32+100</f>
         <v>94.71</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <f t="shared" ref="F32:F36" si="7">D32+100</f>
         <v>86.77</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>2019</v>
       </c>
       <c r="C33" s="3">
@@ -2338,13 +2338,13 @@
         <f t="shared" si="6"/>
         <v>130.22999999999999</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <f t="shared" si="7"/>
         <v>123.09</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>2020</v>
       </c>
       <c r="C34" s="3">
@@ -2357,13 +2357,13 @@
         <f t="shared" si="6"/>
         <v>120.82</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <f t="shared" si="7"/>
         <v>117.89</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>2021</v>
       </c>
       <c r="C35" s="3">
@@ -2376,13 +2376,13 @@
         <f t="shared" si="6"/>
         <v>126.7</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <f t="shared" si="7"/>
         <v>88.93</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
       <c r="C36" s="3">
@@ -2395,13 +2395,13 @@
         <f t="shared" si="6"/>
         <v>80.960000000000008</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <f t="shared" si="7"/>
         <v>79.12</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>2023</v>
       </c>
       <c r="C37" s="3">
@@ -2414,13 +2414,13 @@
         <f t="shared" ref="E37:E38" si="8">C37+100</f>
         <v>126.1</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <f t="shared" ref="F37:F38" si="9">D37+100</f>
         <v>103.35</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>2024</v>
       </c>
       <c r="C38" s="3">
@@ -2433,655 +2433,653 @@
         <f t="shared" si="8"/>
         <v>120.58</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <f t="shared" si="9"/>
         <v>122.71000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="F39" s="32"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="58">
         <f>AVERAGE(C12:C38)</f>
         <v>10.485555555555553</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="58">
         <f>AVERAGE(D12:D38)</f>
         <v>11.402291466329226</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="58">
         <f>GEOMEAN(E12:E38)-100</f>
         <v>8.8350362984817394</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="58">
         <f>GEOMEAN(F12:F38)-100</f>
         <v>5.0100131077768424</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="F45" s="30"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="F46" s="30"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="58">
         <f>_xlfn.VAR.S(C12:C38)</f>
         <v>330.91586410256423</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="58">
         <f>_xlfn.VAR.S(D12:D38)</f>
         <v>1431.1117291993796</v>
       </c>
-      <c r="E47" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="30"/>
+      <c r="E47" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="29"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="58">
         <f>_xlfn.STDEV.S(C12:C38)</f>
         <v>18.191092988123728</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="58">
         <f>_xlfn.STDEV.S(D12:D38)</f>
         <v>37.830037393576283</v>
       </c>
-      <c r="E48" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="H48" s="62"/>
+      <c r="E48" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="F49" s="30"/>
-      <c r="H49" s="62"/>
+      <c r="F49" s="29"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="F50" s="30"/>
-      <c r="H50" s="62"/>
+      <c r="F50" s="29"/>
+      <c r="H50" s="54"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="58">
         <f>CORREL(C12:C38,D12:D38)</f>
         <v>0.58287648094278377</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="F51" s="30"/>
-      <c r="H51" s="62"/>
+      <c r="F51" s="29"/>
+      <c r="H51" s="54"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B52" s="12"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="F52" s="30"/>
-      <c r="H52" s="62"/>
+      <c r="F52" s="29"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="F53" s="30"/>
-      <c r="H53" s="62"/>
+      <c r="F53" s="29"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="58">
         <f>_xlfn.COVARIANCE.S(C12:C38,D12:D38)</f>
         <v>401.11794933093995</v>
       </c>
-      <c r="D54" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="53">
+      <c r="D54" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="60">
         <f>_xlfn.COVARIANCE.P(C12:C36,D12:D36)</f>
         <v>417.492239141678</v>
       </c>
-      <c r="F54" s="54" t="s">
-        <v>62</v>
+      <c r="F54" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B55" s="12"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="3"/>
-      <c r="F55" s="30"/>
+      <c r="F55" s="29"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="3"/>
-      <c r="F56" s="30"/>
+      <c r="F56" s="29"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="58">
         <f>SLOPE(D12:D38,C12:C38)</f>
         <v>1.212144816383349</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="F57" s="30"/>
+      <c r="F57" s="29"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B58" s="8"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="3"/>
-      <c r="F58" s="30"/>
+      <c r="F58" s="29"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="F59" s="29"/>
+      <c r="H59" s="50"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="7"/>
+      <c r="C60" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B61" s="7"/>
+      <c r="C61" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="F61" s="29"/>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B62" s="7"/>
+      <c r="C62" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="7"/>
+      <c r="C63" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="F63" s="29"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B64" s="7"/>
+      <c r="C64" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="29"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="7"/>
+      <c r="C65" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="D65" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="F59" s="30"/>
-      <c r="H59" s="56"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B60" s="8"/>
-      <c r="C60" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B61" s="8"/>
-      <c r="C61" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="F61" s="30"/>
-      <c r="H61" s="61"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B62" s="8"/>
-      <c r="C62" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B63" s="8"/>
-      <c r="C63" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="F63" s="30"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="8"/>
-      <c r="C64" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" s="30"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="8"/>
-      <c r="C65" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>79</v>
-      </c>
       <c r="E65"/>
-      <c r="F65" s="30"/>
+      <c r="F65" s="29"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="8"/>
-      <c r="C66" s="59">
+      <c r="B66" s="7"/>
+      <c r="C66" s="52">
         <f>C48/100</f>
         <v>0.18191092988123728</v>
       </c>
-      <c r="D66" s="44" t="s">
-        <v>80</v>
+      <c r="D66" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="30"/>
+      <c r="F66" s="29"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="8"/>
-      <c r="C67" s="60">
+      <c r="B67" s="7"/>
+      <c r="C67" s="63">
         <f>D48/100</f>
         <v>0.37830037393576282</v>
       </c>
-      <c r="D67" s="44" t="s">
-        <v>81</v>
+      <c r="D67" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="E67"/>
-      <c r="F67" s="30"/>
+      <c r="F67" s="29"/>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B68" s="8"/>
-      <c r="C68" s="61">
+      <c r="B68" s="7"/>
+      <c r="C68" s="53">
         <f>C41/100</f>
         <v>0.10485555555555554</v>
       </c>
-      <c r="D68" s="44" t="s">
-        <v>82</v>
+      <c r="D68" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="E68"/>
-      <c r="F68" s="30"/>
+      <c r="F68" s="29"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B69" s="8"/>
-      <c r="C69" s="60">
+      <c r="B69" s="7"/>
+      <c r="C69" s="63">
         <f>D41/100</f>
         <v>0.11402291466329226</v>
       </c>
-      <c r="D69" s="44" t="s">
-        <v>83</v>
+      <c r="D69" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="E69"/>
-      <c r="F69" s="30"/>
+      <c r="F69" s="29"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B70" s="8"/>
-      <c r="C70" s="63">
+      <c r="B70" s="7"/>
+      <c r="C70" s="50">
         <f>C68*C64+C69*C65</f>
         <v>0.10760576328787655</v>
       </c>
-      <c r="D70" s="44" t="s">
-        <v>87</v>
+      <c r="D70" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="E70"/>
-      <c r="F70" s="30"/>
+      <c r="F70" s="29"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B71" s="8"/>
-      <c r="C71" s="5">
+      <c r="B71" s="7"/>
+      <c r="C71" s="58">
         <f>C51</f>
         <v>0.58287648094278377</v>
       </c>
-      <c r="D71" s="44" t="s">
-        <v>88</v>
+      <c r="D71" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="E71"/>
-      <c r="F71" s="30"/>
+      <c r="F71" s="29"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="64">
         <f>C64^2*C66^2+C65^2*C67^2+2*C64*C65*C71*C66*C67</f>
         <v>4.5941836775719544E-2</v>
       </c>
-      <c r="D72" s="44" t="s">
-        <v>84</v>
+      <c r="D72" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="E72"/>
-      <c r="F72" s="30"/>
+      <c r="F72" s="29"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B73" s="8"/>
-      <c r="C73" s="56">
+      <c r="B73" s="7"/>
+      <c r="C73" s="50">
         <f>SQRT(C72)</f>
         <v>0.21434046929061143</v>
       </c>
-      <c r="D73" s="44" t="s">
-        <v>85</v>
+      <c r="D73" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="E73"/>
-      <c r="F73" s="30"/>
+      <c r="F73" s="29"/>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B74" s="8"/>
-      <c r="C74" s="61">
+      <c r="B74" s="7"/>
+      <c r="C74" s="53">
         <f>C64*C66+C65*C67</f>
         <v>0.2408277630975949</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>86</v>
+      <c r="D74" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="E74"/>
-      <c r="F74" s="30"/>
+      <c r="F74" s="29"/>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B75" s="8"/>
-      <c r="E75"/>
-      <c r="F75" s="30"/>
+      <c r="B75" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="8"/>
-      <c r="C76" s="55" t="s">
+    <row r="76" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E76"/>
-      <c r="F76" s="30"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="17"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="33"/>
-      <c r="H77" s="56"/>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H78" s="56"/>
+      <c r="H78" s="50"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H79" s="61"/>
+      <c r="H79" s="53"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H80" s="61"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H81" s="4"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
     </row>
     <row r="82" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H82" s="29"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
     </row>
     <row r="83" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H83" s="29"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
     </row>
     <row r="84" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H84" s="29"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="66"/>
-      <c r="M84" s="66"/>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
     </row>
     <row r="85" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H85" s="29"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
-      <c r="M85" s="66"/>
-      <c r="N85" s="66"/>
-      <c r="O85" s="66"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B97" s="41" t="s">
-        <v>68</v>
+      <c r="B97" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="7"/>
+      <c r="B99" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D100" s="75"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="76"/>
+      <c r="C100" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="77"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B101" s="9"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="76"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="77"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B102" s="9"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="76"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="77"/>
     </row>
     <row r="103" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="10"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="78"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="79"/>
     </row>
     <row r="105" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="21"/>
+      <c r="G105" s="20"/>
     </row>
     <row r="106" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="7"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="11"/>
-      <c r="C107" s="82" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="42"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="84"/>
+      <c r="H107" s="39"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B108" s="11"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="42"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="39"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B109" s="11"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="42"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B110" s="11"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="42"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="39"/>
     </row>
     <row r="111" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="10"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="42"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="39"/>
     </row>
     <row r="112" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="113" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
       <c r="F114"/>
-      <c r="G114" s="13"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="12"/>
-      <c r="C115" s="67" t="s">
+      <c r="B115" s="11"/>
+      <c r="C115" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="69"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B116" s="12"/>
-      <c r="C116" s="67" t="s">
+      <c r="B116" s="11"/>
+      <c r="C116" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="69"/>
     </row>
     <row r="117" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="14"/>
-      <c r="C117" s="74" t="s">
+      <c r="B117" s="13"/>
+      <c r="C117" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="16"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B118" s="3"/>
@@ -3090,284 +3088,284 @@
       <c r="G118"/>
     </row>
     <row r="119" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="7"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
       <c r="F120"/>
-      <c r="G120" s="13"/>
+      <c r="G120" s="12"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="9"/>
-      <c r="C121" s="67" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="69"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B122" s="9"/>
-      <c r="C122" s="67" t="s">
+      <c r="B122" s="8"/>
+      <c r="C122" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="69"/>
     </row>
     <row r="123" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="17"/>
-      <c r="C123" s="74" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="16"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="125" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="52" t="s">
+      <c r="B125" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="7"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C126" s="75" t="s">
+      <c r="C126" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="75"/>
-      <c r="E126" s="75"/>
-      <c r="F126" s="75"/>
-      <c r="G126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="77"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="11"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="75"/>
-      <c r="E127" s="75"/>
-      <c r="F127" s="75"/>
-      <c r="G127" s="76"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="77"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B128" s="11"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="75"/>
-      <c r="E128" s="75"/>
-      <c r="F128" s="75"/>
-      <c r="G128" s="76"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="77"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B129" s="11"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="75"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="75"/>
-      <c r="G129" s="76"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="77"/>
     </row>
     <row r="130" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="10"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="78"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="79"/>
     </row>
     <row r="131" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="132" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="52" t="s">
+      <c r="B132" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="19"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="18"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="66" t="s">
+      <c r="C133" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D133" s="66"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="70"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="71"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B134" s="9"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="70"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="71"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B135" s="9"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="70"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="71"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B136" s="9"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="69"/>
-      <c r="G136" s="70"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="71"/>
     </row>
     <row r="137" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="17"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="71"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="73"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
     </row>
     <row r="138" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="52" t="s">
+      <c r="B139" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="7"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C140" s="23">
+      <c r="C140" s="22">
         <f>0.03 + 1.1*(0.05)</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="D140" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E140" s="16"/>
+      <c r="E140" s="15"/>
     </row>
     <row r="141" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="52" t="s">
+      <c r="B142" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="7"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C143" s="43">
+      <c r="C143" s="40">
         <v>0.66</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E143" s="16"/>
+      <c r="E143" s="15"/>
     </row>
     <row r="144" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="145" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="52" t="s">
+      <c r="B145" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="19"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="18"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B146" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G146" s="30"/>
+      <c r="B146" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G146" s="29"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B147" s="9"/>
-      <c r="G147" s="30"/>
+      <c r="B147" s="8"/>
+      <c r="G147" s="29"/>
     </row>
     <row r="148" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="17"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="33"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="32"/>
     </row>
     <row r="149" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="150" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="7"/>
+      <c r="B150" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C151" s="44" t="s">
+      <c r="C151" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E151"/>
       <c r="F151"/>
-      <c r="G151" s="13"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B152" s="8"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152"/>
       <c r="F152"/>
-      <c r="G152" s="13"/>
+      <c r="G152" s="12"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C153" s="44" t="s">
-        <v>74</v>
+      <c r="C153" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="E153"/>
       <c r="F153"/>
-      <c r="G153" s="13"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C154" t="s">
@@ -3375,39 +3373,39 @@
       </c>
       <c r="E154"/>
       <c r="F154"/>
-      <c r="G154" s="13"/>
+      <c r="G154" s="12"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B155" s="24"/>
+      <c r="B155" s="23"/>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="E155"/>
       <c r="F155"/>
-      <c r="G155" s="13"/>
+      <c r="G155" s="12"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B156" s="24"/>
+      <c r="B156" s="23"/>
       <c r="C156" t="s">
         <v>2</v>
       </c>
       <c r="E156"/>
       <c r="F156"/>
-      <c r="G156" s="13"/>
+      <c r="G156" s="12"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="44" t="s">
+      <c r="C157" s="41" t="s">
         <v>60</v>
       </c>
       <c r="E157"/>
       <c r="F157"/>
-      <c r="G157" s="13"/>
+      <c r="G157" s="12"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B158" s="22">
+      <c r="B158" s="21">
         <v>0.1</v>
       </c>
       <c r="C158" t="s">
@@ -3415,28 +3413,28 @@
       </c>
       <c r="E158"/>
       <c r="F158"/>
-      <c r="G158" s="13"/>
+      <c r="G158" s="12"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B159" s="25" t="s">
+      <c r="B159" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C159" s="44" t="s">
+      <c r="C159" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E159"/>
       <c r="F159"/>
-      <c r="G159" s="13"/>
+      <c r="G159" s="12"/>
     </row>
     <row r="160" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="10"/>
-      <c r="C160" s="15" t="s">
+      <c r="B160" s="9"/>
+      <c r="C160" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="16"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B161" s="3"/>
@@ -3457,13 +3455,13 @@
       <c r="G163"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B164" s="27"/>
+      <c r="B164" s="26"/>
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B165" s="28"/>
+      <c r="B165" s="27"/>
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165"/>
@@ -3481,93 +3479,93 @@
       <c r="G167"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B168" s="27"/>
+      <c r="B168" s="26"/>
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B169" s="28"/>
+      <c r="B169" s="27"/>
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B170" s="4"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="26"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B171" s="29"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B172" s="29"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="26"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B173" s="29"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="26"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B174" s="29"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="26"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="25"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B175" s="29"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="26"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="25"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B176" s="29"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="26"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3598,7 +3596,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD514"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/homeworks/CF_HW_5_Answer_2024.xlsx
+++ b/homeworks/CF_HW_5_Answer_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Corporate Finance/Corp Fin Git/Corp-Fin/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{13CA8EDD-2E5B-C447-8FC4-8C452426AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5E4327-F361-964C-82A2-0C862859AB69}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{13CA8EDD-2E5B-C447-8FC4-8C452426AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91C31BA-4FF7-3745-B5FF-2596B4D30F1F}"/>
   <bookViews>
-    <workbookView xWindow="25160" yWindow="500" windowWidth="24660" windowHeight="27660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26300" yWindow="500" windowWidth="24660" windowHeight="27660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 5 Fall " sheetId="1" r:id="rId1"/>
@@ -775,12 +775,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -796,39 +829,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1886,10 +1886,10 @@
       <c r="B8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
     </row>
@@ -2607,8 +2607,8 @@
         <v>91</v>
       </c>
       <c r="E54" s="60">
-        <f>_xlfn.COVARIANCE.P(C12:C36,D12:D36)</f>
-        <v>417.492239141678</v>
+        <f>_xlfn.COVARIANCE.P(C12:C38,D12:D38)</f>
+        <v>386.26172898534958</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>92</v>
@@ -2868,53 +2868,53 @@
     </row>
     <row r="81" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H81" s="4"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
     </row>
     <row r="82" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H82" s="28"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="80"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="80"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="80"/>
+      <c r="O82" s="80"/>
     </row>
     <row r="83" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H83" s="28"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
     </row>
     <row r="84" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H84" s="28"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="80"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
     </row>
     <row r="85" spans="8:15" x14ac:dyDescent="0.15">
       <c r="H85" s="28"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B97" s="38" t="s">
@@ -2936,37 +2936,37 @@
       <c r="B100" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="82" t="s">
+      <c r="C100" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="77"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="71"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B101" s="8"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="77"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="71"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="8"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="77"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="71"/>
     </row>
     <row r="103" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="79"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
     </row>
     <row r="105" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G105" s="20"/>
@@ -2983,49 +2983,49 @@
     </row>
     <row r="107" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="10"/>
-      <c r="C107" s="83" t="s">
+      <c r="C107" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="84"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="77"/>
       <c r="H107" s="39"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B108" s="10"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="84"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="77"/>
       <c r="H108" s="39"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B109" s="10"/>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="84"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="77"/>
       <c r="H109" s="39"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B110" s="10"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="84"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="39"/>
     </row>
     <row r="111" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B111" s="9"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="86"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="79"/>
       <c r="H111" s="39"/>
     </row>
     <row r="112" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -3043,41 +3043,41 @@
       <c r="B114" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
       <c r="F114"/>
       <c r="G114" s="12"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B115" s="11"/>
-      <c r="C115" s="68" t="s">
+      <c r="C115" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="68"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="69"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="75"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B116" s="11"/>
-      <c r="C116" s="68" t="s">
+      <c r="C116" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="69"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="75"/>
     </row>
     <row r="117" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
-      <c r="C117" s="75" t="s">
+      <c r="C117" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D117" s="75"/>
-      <c r="E117" s="75"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
       <c r="F117" s="14"/>
       <c r="G117" s="15"/>
     </row>
@@ -3101,41 +3101,41 @@
       <c r="B120" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="68" t="s">
+      <c r="C120" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
       <c r="F120"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B121" s="8"/>
-      <c r="C121" s="68" t="s">
+      <c r="C121" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="69"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="75"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B122" s="8"/>
-      <c r="C122" s="68" t="s">
+      <c r="C122" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="68"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="69"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="75"/>
     </row>
     <row r="123" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B123" s="16"/>
-      <c r="C123" s="75" t="s">
+      <c r="C123" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="75"/>
-      <c r="E123" s="75"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
       <c r="F123" s="14"/>
       <c r="G123" s="15"/>
     </row>
@@ -3154,45 +3154,45 @@
       <c r="B126" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C126" s="76" t="s">
+      <c r="C126" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="76"/>
-      <c r="E126" s="76"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="77"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="71"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B127" s="10"/>
-      <c r="C127" s="76"/>
-      <c r="D127" s="76"/>
-      <c r="E127" s="76"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="77"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="71"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B128" s="10"/>
-      <c r="C128" s="76"/>
-      <c r="D128" s="76"/>
-      <c r="E128" s="76"/>
-      <c r="F128" s="76"/>
-      <c r="G128" s="77"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="71"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B129" s="10"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="76"/>
-      <c r="G129" s="77"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="71"/>
     </row>
     <row r="130" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B130" s="9"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="79"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="73"/>
     </row>
     <row r="131" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="132" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3209,45 +3209,45 @@
       <c r="B133" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="67" t="s">
+      <c r="C133" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D133" s="67"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="71"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="81"/>
+      <c r="F133" s="81"/>
+      <c r="G133" s="82"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B134" s="8"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="71"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81"/>
+      <c r="G134" s="82"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B135" s="8"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="71"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="82"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B136" s="8"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="71"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="81"/>
+      <c r="F136" s="81"/>
+      <c r="G136" s="82"/>
     </row>
     <row r="137" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B137" s="16"/>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
+      <c r="C137" s="83"/>
+      <c r="D137" s="83"/>
+      <c r="E137" s="84"/>
+      <c r="F137" s="84"/>
+      <c r="G137" s="85"/>
     </row>
     <row r="138" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3569,11 +3569,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C100:G103"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C107:G111"/>
     <mergeCell ref="I81:O85"/>
     <mergeCell ref="C116:G116"/>
     <mergeCell ref="C133:G137"/>
@@ -3583,6 +3578,11 @@
     <mergeCell ref="C122:G122"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="C126:G130"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C100:G103"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C107:G111"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/homeworks/CF_HW_5_Answer_2024.xlsx
+++ b/homeworks/CF_HW_5_Answer_2024.xlsx
@@ -1823,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
